--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/50.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/50.xlsx
@@ -479,13 +479,13 @@
         <v>-0.006742462104715297</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.801904708532881</v>
+        <v>-1.825796744775104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04190916025435169</v>
+        <v>0.03880519454714673</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07726612349580858</v>
+        <v>-0.07069301964525691</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.007130819533058905</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.841101719701071</v>
+        <v>-1.852065549890491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01856016060897728</v>
+        <v>0.01138578145408875</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06272061279586894</v>
+        <v>-0.06335494250175311</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.01210702131936687</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.941716956982414</v>
+        <v>-1.951787531320496</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01639880407511099</v>
+        <v>-0.01101723269938394</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06445518186754229</v>
+        <v>-0.05575715220323469</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.03066171213401098</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.988987899233316</v>
+        <v>-2.011157171547276</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03670522475901116</v>
+        <v>-0.03380273349933269</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06093567511231395</v>
+        <v>-0.05493866226015833</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07035674112151477</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.950891914440476</v>
+        <v>-1.987608271473496</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02242257525232872</v>
+        <v>-0.02653076515892352</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07612023757550168</v>
+        <v>-0.06466137837243267</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1354218733861121</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.825426850281598</v>
+        <v>-1.869045281161522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01861525127822281</v>
+        <v>0.01421271979594479</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06801718713904574</v>
+        <v>-0.06503442090418095</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2233485678505639</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.557844386670042</v>
+        <v>-1.61114933122245</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05647670722198955</v>
+        <v>0.05646254104989785</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06415926627273776</v>
+        <v>-0.06304013867749297</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3271148877006412</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.15691023609233</v>
+        <v>-1.224521440438241</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05162400627101953</v>
+        <v>0.05927216518141958</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04955079480794607</v>
+        <v>-0.05010170150040132</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4352859828387978</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6519751331033583</v>
+        <v>-0.7224864676802653</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04637307848236044</v>
+        <v>0.05694576492013716</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01972942853578324</v>
+        <v>-0.01585576747826225</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.5336820584687498</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1442107307438481</v>
+        <v>-0.2128914810826824</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0480051080308288</v>
+        <v>-0.03482112387081424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01896153548490896</v>
+        <v>0.02326490376254504</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.6067018357128732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4398668406736833</v>
+        <v>0.3662090418732963</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2304244800748507</v>
+        <v>-0.22772503728182</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08018930528438442</v>
+        <v>0.08691351497058096</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.6410451725194639</v>
       </c>
       <c r="E13" t="n">
-        <v>1.018364514306204</v>
+        <v>0.9337137659626528</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5160113614054049</v>
+        <v>-0.5271695829563054</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1716335201554692</v>
+        <v>0.1800450783397</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.628536436428602</v>
       </c>
       <c r="E14" t="n">
-        <v>1.605478368608724</v>
+        <v>1.511218233529632</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8283770300466476</v>
+        <v>-0.8472865087603935</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2784763640902386</v>
+        <v>0.2977943007659619</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.5696745332777028</v>
       </c>
       <c r="E15" t="n">
-        <v>2.284710117966246</v>
+        <v>2.171516106877029</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.166454301034337</v>
+        <v>-1.188038038235173</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4000724892489593</v>
+        <v>0.4168562551393885</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.471118011781644</v>
       </c>
       <c r="E16" t="n">
-        <v>2.82452312365456</v>
+        <v>2.697268399754763</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.515836177351208</v>
+        <v>-1.538248635619409</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5256666229757838</v>
+        <v>0.53459288541268</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.3417797548942325</v>
       </c>
       <c r="E17" t="n">
-        <v>3.322796190712626</v>
+        <v>3.195152684089869</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.857110281174259</v>
+        <v>-1.879574682073463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.64844326247548</v>
+        <v>0.6675156521682805</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.1906793562268244</v>
       </c>
       <c r="E18" t="n">
-        <v>3.737792628120038</v>
+        <v>3.623007283699185</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.170962610875571</v>
+        <v>-2.207749011759489</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8016299513987055</v>
+        <v>0.8146628297230752</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.02593995913985388</v>
       </c>
       <c r="E19" t="n">
-        <v>4.087431069553682</v>
+        <v>3.981660132640517</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.526287196384913</v>
+        <v>-2.569837944442621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9455566858313191</v>
+        <v>0.9598110029938182</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1443595881136125</v>
       </c>
       <c r="E20" t="n">
-        <v>4.397871712809573</v>
+        <v>4.286446899212698</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.851064792807172</v>
+        <v>-2.905761957272371</v>
       </c>
       <c r="G20" t="n">
-        <v>1.069290328956766</v>
+        <v>1.093467262659945</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3112899731575518</v>
       </c>
       <c r="E21" t="n">
-        <v>4.619668321211175</v>
+        <v>4.528104480886871</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.12557136653333</v>
+        <v>-3.187002184799453</v>
       </c>
       <c r="G21" t="n">
-        <v>1.179855728113412</v>
+        <v>1.21165563642105</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4666329371084637</v>
       </c>
       <c r="E22" t="n">
-        <v>4.787649215855505</v>
+        <v>4.696862940977124</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.346584113412523</v>
+        <v>-3.423271899021414</v>
       </c>
       <c r="G22" t="n">
-        <v>1.267187031020538</v>
+        <v>1.307921071860678</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6018584322273947</v>
       </c>
       <c r="E23" t="n">
-        <v>4.901246175839776</v>
+        <v>4.814909653017311</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.486475849827683</v>
+        <v>-3.563250206488245</v>
       </c>
       <c r="G23" t="n">
-        <v>1.345321340201904</v>
+        <v>1.390376063530015</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7103791292622192</v>
       </c>
       <c r="E24" t="n">
-        <v>4.970909114110301</v>
+        <v>4.884168068373663</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.602954051813494</v>
+        <v>-3.683250276257967</v>
       </c>
       <c r="G24" t="n">
-        <v>1.407307787217846</v>
+        <v>1.45487149702531</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7924138425855162</v>
       </c>
       <c r="E25" t="n">
-        <v>4.966796202146343</v>
+        <v>4.889648802954032</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.704401158200445</v>
+        <v>-3.784029211527925</v>
       </c>
       <c r="G25" t="n">
-        <v>1.446606322619361</v>
+        <v>1.494593443570455</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8514975336458047</v>
       </c>
       <c r="E26" t="n">
-        <v>4.957385141820086</v>
+        <v>4.889746392139553</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.721804300615106</v>
+        <v>-3.797389485829526</v>
       </c>
       <c r="G26" t="n">
-        <v>1.47227227841129</v>
+        <v>1.523977232526896</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8930443440616574</v>
       </c>
       <c r="E27" t="n">
-        <v>4.917748192307492</v>
+        <v>4.861390437669321</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.673334742803333</v>
+        <v>-3.735546274553621</v>
       </c>
       <c r="G27" t="n">
-        <v>1.467606885735754</v>
+        <v>1.517145989540451</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9197392826513059</v>
       </c>
       <c r="E28" t="n">
-        <v>4.767323906942149</v>
+        <v>4.712392213627877</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.603135064012444</v>
+        <v>-3.659894980536107</v>
       </c>
       <c r="G28" t="n">
-        <v>1.42096240309513</v>
+        <v>1.47413591705091</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9322650088726362</v>
       </c>
       <c r="E29" t="n">
-        <v>4.640108533520385</v>
+        <v>4.590232589623731</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.513430140270396</v>
+        <v>-3.567756623232529</v>
       </c>
       <c r="G29" t="n">
-        <v>1.375891939575806</v>
+        <v>1.425772605529825</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9321129442549134</v>
       </c>
       <c r="E30" t="n">
-        <v>4.491179566320278</v>
+        <v>4.453994938598671</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.388175994673773</v>
+        <v>-3.455397629287161</v>
       </c>
       <c r="G30" t="n">
-        <v>1.323023785329558</v>
+        <v>1.371517740437711</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9202759825311024</v>
       </c>
       <c r="E31" t="n">
-        <v>4.337311327117529</v>
+        <v>4.306627398366894</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.267311788406457</v>
+        <v>-3.337743635017738</v>
       </c>
       <c r="G31" t="n">
-        <v>1.255871407557507</v>
+        <v>1.293547129244961</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.90112363247191</v>
       </c>
       <c r="E32" t="n">
-        <v>4.198830698844616</v>
+        <v>4.162440950779265</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.129168787235063</v>
+        <v>-3.203756831336138</v>
       </c>
       <c r="G32" t="n">
-        <v>1.186827058801653</v>
+        <v>1.227894791695509</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8784235433698051</v>
       </c>
       <c r="E33" t="n">
-        <v>3.994829950628441</v>
+        <v>3.961652775589664</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.007164204114364</v>
+        <v>-3.090964195122853</v>
       </c>
       <c r="G33" t="n">
-        <v>1.116520346710515</v>
+        <v>1.154408560979344</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8570701986985195</v>
       </c>
       <c r="E34" t="n">
-        <v>3.738631580311691</v>
+        <v>3.702529877745539</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.928286170898184</v>
+        <v>-3.008428141468769</v>
       </c>
       <c r="G34" t="n">
-        <v>1.057395466457097</v>
+        <v>1.094002429161187</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8411772517943368</v>
       </c>
       <c r="E35" t="n">
-        <v>3.497735823892228</v>
+        <v>3.462076420699161</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.837514062191894</v>
+        <v>-2.926681458404018</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9624679472705737</v>
+        <v>1.006099757313029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8324269606793547</v>
       </c>
       <c r="E36" t="n">
-        <v>3.239437712067664</v>
+        <v>3.212825770783833</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.770809492859853</v>
+        <v>-2.84677873873987</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8902975965398159</v>
+        <v>0.9322452061224792</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8322858531787996</v>
       </c>
       <c r="E37" t="n">
-        <v>2.991207026542939</v>
+        <v>2.957538757538317</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.672377420099754</v>
+        <v>-2.746680566739874</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8363229068512941</v>
+        <v>0.8695205441386469</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8389673206056731</v>
       </c>
       <c r="E38" t="n">
-        <v>2.705310063445488</v>
+        <v>2.683808962248521</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.583077019271881</v>
+        <v>-2.646581607730317</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7698835597411919</v>
+        <v>0.8065660753631045</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8504437684013467</v>
       </c>
       <c r="E39" t="n">
-        <v>2.450361464311052</v>
+        <v>2.43283633541449</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.469958561100486</v>
+        <v>-2.543652562340662</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7003575611342193</v>
+        <v>0.7369267473793982</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8642257402857418</v>
       </c>
       <c r="E40" t="n">
-        <v>2.215210877684335</v>
+        <v>2.20006566569918</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.373863119725957</v>
+        <v>-2.452035992375795</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6471116422988596</v>
+        <v>0.675653331025405</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8762833509055163</v>
       </c>
       <c r="E41" t="n">
-        <v>2.014148823167628</v>
+        <v>1.997295800435862</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.278381545808736</v>
+        <v>-2.3514058019128</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5823328853617298</v>
+        <v>0.6098042410857908</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8851983010760059</v>
       </c>
       <c r="E42" t="n">
-        <v>1.761565974772507</v>
+        <v>1.757793050938749</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.180514545913184</v>
+        <v>-2.251354850486443</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5123441251330948</v>
+        <v>0.5372624218424059</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8886841235494267</v>
       </c>
       <c r="E43" t="n">
-        <v>1.544585864882086</v>
+        <v>1.540520173491766</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.098891423349455</v>
+        <v>-2.170686370519783</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4589077499840577</v>
+        <v>0.4825589613007218</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8856508757818836</v>
       </c>
       <c r="E44" t="n">
-        <v>1.314536674227505</v>
+        <v>1.321005892816051</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.01029146103056</v>
+        <v>-2.081975439852836</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4114022788840817</v>
+        <v>0.4249656016523297</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8754330212394238</v>
       </c>
       <c r="E45" t="n">
-        <v>1.103939211873958</v>
+        <v>1.108577846224431</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.931504720923415</v>
+        <v>-1.999483458734149</v>
       </c>
       <c r="G45" t="n">
-        <v>0.352304156955726</v>
+        <v>0.3633695113784698</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.856386372656577</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9042229437059631</v>
+        <v>0.9135600251335187</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.864570344799664</v>
+        <v>-1.931695964246653</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2830913881538922</v>
+        <v>0.2956819671051764</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8285125722281901</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7435171654402841</v>
+        <v>0.7565217114204704</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.816896453653709</v>
+        <v>-1.877079074756641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2449828112080812</v>
+        <v>0.2529741062869248</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.792092888237467</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5830333238707086</v>
+        <v>0.5935981402128788</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.750248549010035</v>
+        <v>-1.81416316944957</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2006033420830083</v>
+        <v>0.2034035220998023</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7484928803899925</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4552985241389153</v>
+        <v>0.4696189501045089</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.702083563898233</v>
+        <v>-1.764652397989057</v>
       </c>
       <c r="G49" t="n">
-        <v>0.146553099476664</v>
+        <v>0.1572359672529318</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7000725126273185</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3556237632825492</v>
+        <v>0.3568546462354063</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.638931555722968</v>
+        <v>-1.708203350241851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1135238822352904</v>
+        <v>0.1173125462602611</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6482179354845549</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2246370400461485</v>
+        <v>0.2293118768364116</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.588063979779894</v>
+        <v>-1.650061444929685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07642425154623317</v>
+        <v>0.08134463531941911</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5957162193894411</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1178571568762312</v>
+        <v>0.1219779389357964</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.543619975870847</v>
+        <v>-1.612449471016645</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04616688197747005</v>
+        <v>0.04803052061709006</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5438312284482786</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02583370296850776</v>
+        <v>0.03802290704386029</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.525983091616673</v>
+        <v>-1.583603209590127</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006868346575955777</v>
+        <v>0.008225151058516969</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4940864303530717</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0663109504115558</v>
+        <v>-0.05065260819285656</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.508110104494304</v>
+        <v>-1.567147626686489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01407397783294987</v>
+        <v>-0.01125490958670034</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4476230593345544</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1383081590389706</v>
+        <v>-0.1233030347556111</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.494873390693726</v>
+        <v>-1.556417538336583</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04384969755059499</v>
+        <v>-0.04079767447439295</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4047409318097019</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2082119222350554</v>
+        <v>-0.184475713885841</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.500661846012309</v>
+        <v>-1.560785441398192</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07445335132604426</v>
+        <v>-0.07460917921905302</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3666883515380797</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2630460263638075</v>
+        <v>-0.2437154975351137</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.496818878327653</v>
+        <v>-1.559336556797035</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1093430591687953</v>
+        <v>-0.0978841999657263</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.332865339162016</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3481894426923255</v>
+        <v>-0.3226840368507692</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.496054692044262</v>
+        <v>-1.558311870349068</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1290875550263911</v>
+        <v>-0.1209797825325713</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3032306109014481</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.422771190716916</v>
+        <v>-0.3941744113211252</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.516860863799175</v>
+        <v>-1.57220731115191</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1525026634748602</v>
+        <v>-0.1456241999147762</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2763136399677768</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4895977465308581</v>
+        <v>-0.4722803881583079</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.531826637604502</v>
+        <v>-1.584923024623338</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1858167781771892</v>
+        <v>-0.1728893591339467</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2493784256598119</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5620891971623613</v>
+        <v>-0.5411531688299408</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.561239545914687</v>
+        <v>-1.610792815891475</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2076987920015114</v>
+        <v>-0.1966759360950427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2206696200051665</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6172695854977994</v>
+        <v>-0.5943502930725402</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.588839184197134</v>
+        <v>-1.646161025547102</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2199021622489556</v>
+        <v>-0.2121800244398545</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1879620097400804</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.670007096156979</v>
+        <v>-0.6444702099329966</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.63416621283323</v>
+        <v>-1.688365200246537</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2536979268024027</v>
+        <v>-0.2435565216038623</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1516575812066647</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7264671620380346</v>
+        <v>-0.6970928171963212</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.676297195643525</v>
+        <v>-1.726629605085357</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2743380395400186</v>
+        <v>-0.2689737823746259</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1124903600917677</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8034288269740318</v>
+        <v>-0.7660679091108387</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.720889944359534</v>
+        <v>-1.77148127994682</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3021950299487982</v>
+        <v>-0.2887009640218874</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.07117737628034619</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8802834586097805</v>
+        <v>-0.8274137303444117</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.759920109500867</v>
+        <v>-1.810554730613988</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3215963896379505</v>
+        <v>-0.3132273299699947</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.02893698240501365</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.932892686710574</v>
+        <v>-0.8811475951073745</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.78937945137513</v>
+        <v>-1.844867560448783</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3454899998992949</v>
+        <v>-0.3352163770945653</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.01348847012135112</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.976736202324844</v>
+        <v>-0.9060139491856828</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.822333902708242</v>
+        <v>-1.880879543925021</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3707970793315674</v>
+        <v>-0.3562610127463555</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.05504715802305105</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.000547963591881</v>
+        <v>-0.9222436603454142</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.858426948169227</v>
+        <v>-1.930629566291972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3891344020947204</v>
+        <v>-0.3763643849636079</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.09569880481890415</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9980555043133011</v>
+        <v>-0.9200077661836066</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.890906832737267</v>
+        <v>-1.958093838929987</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4136403057942508</v>
+        <v>-0.3931245405672176</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1354104162950407</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.00116419207787</v>
+        <v>-0.9359683200735955</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.916328815565395</v>
+        <v>-1.985711578432329</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4232292302812146</v>
+        <v>-0.4019894162583831</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1744147490874173</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.005162200645974</v>
+        <v>-0.9285901054424985</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.960088908166236</v>
+        <v>-2.026812365727733</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4281071155381254</v>
+        <v>-0.4078557855234707</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2132892466043491</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9690242956400313</v>
+        <v>-0.8876656082886807</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.979635864624108</v>
+        <v>-2.057283014887432</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4404411293726376</v>
+        <v>-0.4207344099739529</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2518244444383764</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9150692811905257</v>
+        <v>-0.8395399736549122</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.018727416511171</v>
+        <v>-2.090769484683543</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.441626365770977</v>
+        <v>-0.4163964132756483</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2906039632336977</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8565543333466119</v>
+        <v>-0.7786836723680637</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.043498542432641</v>
+        <v>-2.119382004270547</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4481884514876796</v>
+        <v>-0.4242303064423618</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3293848460168675</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7661828125066936</v>
+        <v>-0.6920166055301266</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.077106998710653</v>
+        <v>-2.141800758615233</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4395093100528276</v>
+        <v>-0.4189116958314868</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3672646400988567</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6729379197608408</v>
+        <v>-0.5901870124966998</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.072663542731222</v>
+        <v>-2.129470679828524</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4244963156738616</v>
+        <v>-0.4082917888200711</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4035350635910944</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5609606254523887</v>
+        <v>-0.4806998164381453</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.078840780772766</v>
+        <v>-2.126727951509658</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4164751142317133</v>
+        <v>-0.4003508623531091</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4368894898494101</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4033383506453378</v>
+        <v>-0.3241982432454605</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.0629077722174</v>
+        <v>-2.105629799207743</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3910767416904054</v>
+        <v>-0.3764619741491285</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4669837177065376</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2643225558711823</v>
+        <v>-0.1799252246061608</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.029837630478872</v>
+        <v>-2.072429013882148</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3718847265443861</v>
+        <v>-0.3556298310787139</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4934288607150186</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.06287958872712029</v>
+        <v>0.01666818962517386</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.994906211129407</v>
+        <v>-2.043548124034962</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3460377585535075</v>
+        <v>-0.32627909652382</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5160301194416763</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1100515960537011</v>
+        <v>0.183954941837011</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.951376712329836</v>
+        <v>-2.001484037037323</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.327645345121109</v>
+        <v>-0.2980034170287744</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5343932273040878</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3152454507638227</v>
+        <v>0.3957502327418676</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.894409812291722</v>
+        <v>-1.939191443302287</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2874417487248468</v>
+        <v>-0.2641494137678392</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5474128399505656</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5290696523160359</v>
+        <v>0.59332111284753</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.814486630378997</v>
+        <v>-1.85202777343158</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2581461048391984</v>
+        <v>-0.2284475120584971</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5544608539967121</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7134250678792576</v>
+        <v>0.7699732788311061</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.698911915368813</v>
+        <v>-1.735120651235214</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2338731559696205</v>
+        <v>-0.1977793234990745</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5550596971648144</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9266117916873441</v>
+        <v>0.9892703448680819</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.609982196044006</v>
+        <v>-1.636892413951323</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.199986098307138</v>
+        <v>-0.1642794745404319</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5492892678675584</v>
       </c>
       <c r="E87" t="n">
-        <v>1.139401862676863</v>
+        <v>1.19268083591377</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.491482953506444</v>
+        <v>-1.505845877988313</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1604672002286416</v>
+        <v>-0.1322639256131759</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5381311864357562</v>
       </c>
       <c r="E88" t="n">
-        <v>1.310859765560147</v>
+        <v>1.353100142699372</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.334890087204724</v>
+        <v>-1.356585579763172</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.134494310708059</v>
+        <v>-0.1016917522201527</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.521688450857275</v>
       </c>
       <c r="E89" t="n">
-        <v>1.445021285364211</v>
+        <v>1.481544825054872</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.153124720105602</v>
+        <v>-1.176303725685876</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.106802592307016</v>
+        <v>-0.07425345089763907</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.5015245482400115</v>
       </c>
       <c r="E90" t="n">
-        <v>1.56079511379324</v>
+        <v>1.594268204426821</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9681294657695718</v>
+        <v>-0.9886090285568151</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08109886005617577</v>
+        <v>-0.05337880931094935</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4793084416983898</v>
       </c>
       <c r="E91" t="n">
-        <v>1.635420934353227</v>
+        <v>1.67773056833379</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7739836512718599</v>
+        <v>-0.789421630813577</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08467030944240703</v>
+        <v>-0.05546595866579406</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4577023691481401</v>
       </c>
       <c r="E92" t="n">
-        <v>1.699625174311082</v>
+        <v>1.726062399472449</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5719803333206147</v>
+        <v>-0.5756336317011537</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07808776147712755</v>
+        <v>-0.05092963555820548</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4388959617412124</v>
       </c>
       <c r="E93" t="n">
-        <v>1.709990090224847</v>
+        <v>1.727257079985516</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002737354161653</v>
+        <v>-0.4001399437908548</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08176624416360725</v>
+        <v>-0.05995348718062232</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4228612753374445</v>
       </c>
       <c r="E94" t="n">
-        <v>1.697136650080306</v>
+        <v>1.711798638195222</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2156412924875946</v>
+        <v>-0.2135147926547174</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09956997444463933</v>
+        <v>-0.0862222922960095</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.409972202994284</v>
       </c>
       <c r="E95" t="n">
-        <v>1.665154155554597</v>
+        <v>1.677110404799997</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07380800348631097</v>
+        <v>-0.07700168828343007</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.105483564283366</v>
+        <v>-0.08970244857320532</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3977490572196325</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606303154628286</v>
+        <v>1.605234395644923</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03136952821812228</v>
+        <v>0.04145899078565969</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1168401122435505</v>
+        <v>-0.1088519652029495</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3834514853927887</v>
       </c>
       <c r="E97" t="n">
-        <v>1.51524457444192</v>
+        <v>1.500974517088208</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0940941902019547</v>
+        <v>0.1054224058179557</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1379508566984353</v>
+        <v>-0.1342534857825</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3617981583463638</v>
       </c>
       <c r="E98" t="n">
-        <v>1.380949263012545</v>
+        <v>1.377310130804098</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1429926682242819</v>
+        <v>0.1514168185614831</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1465512971772223</v>
+        <v>-0.1422857053584974</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3314258548660886</v>
       </c>
       <c r="E99" t="n">
-        <v>1.253277424045604</v>
+        <v>1.24935182035708</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1532552728951623</v>
+        <v>0.1684335392818649</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1611456024699222</v>
+        <v>-0.1587279090996044</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2913263172552965</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124481735426053</v>
+        <v>1.123247704434954</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1700248726134999</v>
+        <v>0.1911308950110208</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1683010933953552</v>
+        <v>-0.1659337686369189</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2481648931753283</v>
       </c>
       <c r="E101" t="n">
-        <v>1.014262620476094</v>
+        <v>1.00673093898067</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1821763002299412</v>
+        <v>0.2006584327522539</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1921679453316375</v>
+        <v>-0.1892213815365626</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1999643544897226</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8976388217215623</v>
+        <v>0.8930914804801247</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1766782514392379</v>
+        <v>0.2050530941389254</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1931800396266338</v>
+        <v>-0.1976077554148527</v>
       </c>
     </row>
   </sheetData>
